--- a/data/trans_orig/P19C02-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>135899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119009</v>
+        <v>118002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155085</v>
+        <v>157579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3517934917883214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.308071366452137</v>
+        <v>0.3054663888053729</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4014612625842755</v>
+        <v>0.4079171856798449</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -765,19 +765,19 @@
         <v>112796</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97506</v>
+        <v>96824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129784</v>
+        <v>128961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4204288449888073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3634381579419507</v>
+        <v>0.3608987310911217</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4837520003677714</v>
+        <v>0.4806838830644647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>242</v>
@@ -786,19 +786,19 @@
         <v>248695</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226691</v>
+        <v>223748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>274006</v>
+        <v>271621</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3799240847444835</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3463105297007753</v>
+        <v>0.3418144120671973</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.418592070607168</v>
+        <v>0.4149488284671232</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>250403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231217</v>
+        <v>228723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267293</v>
+        <v>268300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6482065082116786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5985387374157243</v>
+        <v>0.5920828143201554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6919286335478629</v>
+        <v>0.6945336111946274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -836,19 +836,19 @@
         <v>155491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>138503</v>
+        <v>139326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170781</v>
+        <v>171463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5795711550111927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5162479996322283</v>
+        <v>0.5193161169355353</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6365618420580489</v>
+        <v>0.6391012689088783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>389</v>
@@ -857,19 +857,19 @@
         <v>405895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>380584</v>
+        <v>382969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>427899</v>
+        <v>430842</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6200759152555165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5814079293928321</v>
+        <v>0.5850511715328768</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6536894702992248</v>
+        <v>0.6581855879328027</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>116611</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101140</v>
+        <v>99137</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>137030</v>
+        <v>134037</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3884393095887993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3369016150077306</v>
+        <v>0.3302295084945752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4564558179251354</v>
+        <v>0.4464865429788041</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -982,19 +982,19 @@
         <v>131540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115181</v>
+        <v>115041</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>149817</v>
+        <v>151813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3943463684700004</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3453015622386602</v>
+        <v>0.3448845569567944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4491381198947896</v>
+        <v>0.4551223894243883</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>237</v>
@@ -1003,19 +1003,19 @@
         <v>248152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>222038</v>
+        <v>219492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>272511</v>
+        <v>274698</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3915483013860442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3503455361535114</v>
+        <v>0.3463269624549377</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4299839673357047</v>
+        <v>0.4334346544012229</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>183594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>163175</v>
+        <v>166168</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>199065</v>
+        <v>201068</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6115606904112008</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5435441820748645</v>
+        <v>0.5535134570211959</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6630983849922695</v>
+        <v>0.6697704915054248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>197</v>
@@ -1053,19 +1053,19 @@
         <v>202025</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>183748</v>
+        <v>181752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>218384</v>
+        <v>218524</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6056536315299996</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5508618801052104</v>
+        <v>0.5448776105756117</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6546984377613398</v>
+        <v>0.6551154430432055</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>370</v>
@@ -1074,19 +1074,19 @@
         <v>385618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>361259</v>
+        <v>359072</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>411732</v>
+        <v>414278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6084516986139559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5700160326642953</v>
+        <v>0.5665653455987771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6496544638464885</v>
+        <v>0.6536730375450623</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>132018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112784</v>
+        <v>114266</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151490</v>
+        <v>151667</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3068277133936739</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2621264823633383</v>
+        <v>0.2655706652641833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3520847152553238</v>
+        <v>0.3524959307833837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1199,19 +1199,19 @@
         <v>48508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37950</v>
+        <v>38572</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59155</v>
+        <v>60511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3463167471770305</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2709390991005569</v>
+        <v>0.2753769706172978</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4223288516868629</v>
+        <v>0.4320115552964324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>175</v>
@@ -1220,19 +1220,19 @@
         <v>180526</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158950</v>
+        <v>157104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203865</v>
+        <v>202555</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3165257924459201</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2786960174523347</v>
+        <v>0.2754591493327425</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3574475239060549</v>
+        <v>0.355150684993983</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>298249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278777</v>
+        <v>278600</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317483</v>
+        <v>316001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6931722866063261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6479152847446763</v>
+        <v>0.6475040692166163</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7378735176366618</v>
+        <v>0.7344293347358167</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -1270,19 +1270,19 @@
         <v>91560</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80913</v>
+        <v>79557</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>102118</v>
+        <v>101496</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6536832528229695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5776711483131375</v>
+        <v>0.5679884447035676</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7290609008994431</v>
+        <v>0.7246230293827022</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>388</v>
@@ -1291,19 +1291,19 @@
         <v>389809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>366470</v>
+        <v>367780</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>411385</v>
+        <v>413231</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6834742075540799</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6425524760939451</v>
+        <v>0.6448493150060171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7213039825476653</v>
+        <v>0.7245408506672577</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>208601</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184206</v>
+        <v>184150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>236659</v>
+        <v>236546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2393709044846282</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2113779769651068</v>
+        <v>0.211313232094959</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2715683825627112</v>
+        <v>0.2714381680685862</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>168</v>
@@ -1416,19 +1416,19 @@
         <v>172152</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150892</v>
+        <v>150630</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196010</v>
+        <v>194558</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2896538869892652</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2538823855402182</v>
+        <v>0.2534426104549937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3297965210613145</v>
+        <v>0.3273526964451012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>369</v>
@@ -1437,19 +1437,19 @@
         <v>380753</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>349358</v>
+        <v>347665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416199</v>
+        <v>417927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2597592418461874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.238340595991263</v>
+        <v>0.2371859292065601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2839415692421473</v>
+        <v>0.2851207386321306</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>662853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>634795</v>
+        <v>634908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>687248</v>
+        <v>687304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7606290955153717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7284316174372887</v>
+        <v>0.728561831931414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7886220230348931</v>
+        <v>0.788686767905041</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>409</v>
@@ -1487,19 +1487,19 @@
         <v>422185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398327</v>
+        <v>399779</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>443445</v>
+        <v>443707</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7103461130107348</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6702034789386854</v>
+        <v>0.6726473035548987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7461176144597818</v>
+        <v>0.7465573895450063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1073</v>
@@ -1508,19 +1508,19 @@
         <v>1085038</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1049592</v>
+        <v>1047864</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1116433</v>
+        <v>1118126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7402407581538125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7160584307578529</v>
+        <v>0.7148792613678695</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7616594040087378</v>
+        <v>0.7628140707934401</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>43787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31341</v>
+        <v>32364</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57042</v>
+        <v>57004</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1766139184749196</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1264138278375616</v>
+        <v>0.1305375270948486</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2300747947785916</v>
+        <v>0.2299219341038203</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -1633,19 +1633,19 @@
         <v>108261</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90310</v>
+        <v>90741</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>128783</v>
+        <v>127719</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.23737371013798</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1980138381299508</v>
+        <v>0.1989586805220225</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.282370372274412</v>
+        <v>0.280035740167584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -1654,19 +1654,19 @@
         <v>152049</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130449</v>
+        <v>132635</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175616</v>
+        <v>175258</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2159761926056145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1852948872561241</v>
+        <v>0.1884006228902951</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2494527349321901</v>
+        <v>0.2489433969164022</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>204140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190885</v>
+        <v>190923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>216586</v>
+        <v>215563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8233860815250804</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7699252052214074</v>
+        <v>0.770078065896179</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8735861721624378</v>
+        <v>0.8694624729051512</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>331</v>
@@ -1704,19 +1704,19 @@
         <v>347819</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>327297</v>
+        <v>328361</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>365770</v>
+        <v>365339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.76262628986202</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7176296277255882</v>
+        <v>0.719964259832416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8019861618700492</v>
+        <v>0.8010413194779774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>529</v>
@@ -1725,19 +1725,19 @@
         <v>551958</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>528391</v>
+        <v>528749</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>573558</v>
+        <v>571372</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7840238073943855</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7505472650678101</v>
+        <v>0.7510566030835983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.814705112743876</v>
+        <v>0.8115993771097049</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>65527</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52773</v>
+        <v>52715</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79325</v>
+        <v>78515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3087493622528809</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2486577256901723</v>
+        <v>0.2483815963041658</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3737649597215281</v>
+        <v>0.3699483037831854</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>219</v>
@@ -1850,19 +1850,19 @@
         <v>223629</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>199773</v>
+        <v>201135</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>251082</v>
+        <v>250763</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2367447562932844</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2114897452800344</v>
+        <v>0.2129318483010089</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2658076289830283</v>
+        <v>0.2654698561794033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>286</v>
@@ -1871,19 +1871,19 @@
         <v>289156</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>259090</v>
+        <v>260595</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>321204</v>
+        <v>316873</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2499547743321686</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2239649273396417</v>
+        <v>0.2252659737262261</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2776583198521755</v>
+        <v>0.2739145657976909</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>146706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132908</v>
+        <v>133718</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159460</v>
+        <v>159518</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6912506377471191</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6262350402784718</v>
+        <v>0.6300516962168146</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7513422743098275</v>
+        <v>0.7516184036958341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>721</v>
@@ -1921,19 +1921,19 @@
         <v>720970</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>693517</v>
+        <v>693836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>744826</v>
+        <v>743464</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7632552437067156</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7341923710169715</v>
+        <v>0.7345301438205968</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7885102547199656</v>
+        <v>0.7870681516989911</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>873</v>
@@ -1942,19 +1942,19 @@
         <v>867676</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>835628</v>
+        <v>839959</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>897742</v>
+        <v>896237</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7500452256678314</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7223416801478251</v>
+        <v>0.7260854342023091</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7760350726603583</v>
+        <v>0.774734026273774</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>702443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>657500</v>
+        <v>656609</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>750724</v>
+        <v>746671</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2869000965438806</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2685441606059739</v>
+        <v>0.2681801958881989</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3066198253685127</v>
+        <v>0.3049641758020639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>774</v>
@@ -2067,19 +2067,19 @@
         <v>796886</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>748011</v>
+        <v>748778</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>845274</v>
+        <v>844500</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2911598735483597</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2733023288147531</v>
+        <v>0.2735827441646518</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3088395516601984</v>
+        <v>0.3085568657444163</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1453</v>
@@ -2088,19 +2088,19 @@
         <v>1499329</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1432437</v>
+        <v>1437188</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1566079</v>
+        <v>1570635</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2891485066894362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2762483998456121</v>
+        <v>0.2771645503452689</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3020214227718288</v>
+        <v>0.3029000469532709</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1745945</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1697664</v>
+        <v>1701717</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1790888</v>
+        <v>1791779</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7130999034561194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6933801746314875</v>
+        <v>0.6950358241979362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7314558393940263</v>
+        <v>0.7318198041118011</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1901</v>
@@ -2138,19 +2138,19 @@
         <v>1940050</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1891662</v>
+        <v>1892436</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1988925</v>
+        <v>1988158</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7088401264516403</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6911604483398015</v>
+        <v>0.6914431342555837</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7266976711852469</v>
+        <v>0.7264172558353482</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3622</v>
@@ -2159,19 +2159,19 @@
         <v>3685995</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3619245</v>
+        <v>3614689</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3752887</v>
+        <v>3748136</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7108514933105639</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6979785772281712</v>
+        <v>0.6970999530467291</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.723751600154388</v>
+        <v>0.7228354496547311</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>162949</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140535</v>
+        <v>141200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182318</v>
+        <v>183468</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4132665535348408</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3564195945365184</v>
+        <v>0.3581073852231164</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.462388626446483</v>
+        <v>0.4653040978745982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -2526,19 +2526,19 @@
         <v>119023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101977</v>
+        <v>101456</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137066</v>
+        <v>136234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4049033191363138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3469145350138561</v>
+        <v>0.3451416433481546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4662853770784997</v>
+        <v>0.4634541558151384</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>260</v>
@@ -2547,19 +2547,19 @@
         <v>281973</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>254452</v>
+        <v>254346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>309831</v>
+        <v>309327</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4096945857789158</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3697077835690977</v>
+        <v>0.3695547428609905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4501713650920343</v>
+        <v>0.4494391583451836</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>231347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211978</v>
+        <v>210828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253761</v>
+        <v>253096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5867334464651592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.537611373553517</v>
+        <v>0.5346959021254017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6435804054634815</v>
+        <v>0.641892614776883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -2597,19 +2597,19 @@
         <v>174931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156888</v>
+        <v>157720</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>191977</v>
+        <v>192498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5950966808636862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5337146229215003</v>
+        <v>0.5365458441848615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6530854649861438</v>
+        <v>0.654858356651845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>369</v>
@@ -2618,19 +2618,19 @@
         <v>406278</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>378420</v>
+        <v>378924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>433799</v>
+        <v>433905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5903054142210843</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5498286349079657</v>
+        <v>0.5505608416548167</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6302922164309025</v>
+        <v>0.6304452571390098</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>157821</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>136768</v>
+        <v>137348</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>178278</v>
+        <v>179675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4112869308748999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3564237521186631</v>
+        <v>0.3579334867408581</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4645996078498675</v>
+        <v>0.4682412464631851</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -2743,19 +2743,19 @@
         <v>126721</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107467</v>
+        <v>108669</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143750</v>
+        <v>145156</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4042125153468573</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3427957772236753</v>
+        <v>0.3466296879923214</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4585305747474484</v>
+        <v>0.4630161265555371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>260</v>
@@ -2764,19 +2764,19 @@
         <v>284542</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257758</v>
+        <v>257430</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>311638</v>
+        <v>313727</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4081059839603701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3696912612121223</v>
+        <v>0.3692211790068767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4469697388523749</v>
+        <v>0.4499658654692807</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>225903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>205446</v>
+        <v>204049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246956</v>
+        <v>246376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5887130691251001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5354003921501326</v>
+        <v>0.531758753536815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6435762478813369</v>
+        <v>0.642066513259142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>166</v>
@@ -2814,19 +2814,19 @@
         <v>186780</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169751</v>
+        <v>168345</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>206034</v>
+        <v>204832</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5957874846531427</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5414694252525517</v>
+        <v>0.536983873444463</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.657204222776325</v>
+        <v>0.6533703120076787</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>365</v>
@@ -2835,19 +2835,19 @@
         <v>412683</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>385587</v>
+        <v>383498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>439467</v>
+        <v>439795</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5918940160396299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5530302611476251</v>
+        <v>0.5500341345307194</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6303087387878776</v>
+        <v>0.6307788209931233</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>164782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>141783</v>
+        <v>143455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>187002</v>
+        <v>185654</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3077225534551612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2647741853424527</v>
+        <v>0.2678965830089239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3492174300765141</v>
+        <v>0.3467014307432517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -2960,19 +2960,19 @@
         <v>77277</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63402</v>
+        <v>63512</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93513</v>
+        <v>94629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3197136610349458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2623077093841029</v>
+        <v>0.2627650580422066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3868865366201134</v>
+        <v>0.3915033744838614</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>232</v>
@@ -2981,19 +2981,19 @@
         <v>242059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>218348</v>
+        <v>214784</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>269474</v>
+        <v>268020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3114517831920725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.280944221156932</v>
+        <v>0.2763581744647304</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3467267491499422</v>
+        <v>0.3448553593382229</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>370706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>348486</v>
+        <v>349834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>393705</v>
+        <v>392033</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6922774465448388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6507825699234858</v>
+        <v>0.6532985692567482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7352258146575473</v>
+        <v>0.7321034169910758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -3031,19 +3031,19 @@
         <v>164430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148194</v>
+        <v>147078</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178305</v>
+        <v>178195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6802863389650542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6131134633798867</v>
+        <v>0.6084966255161388</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7376922906158971</v>
+        <v>0.7372349419577935</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>501</v>
@@ -3052,19 +3052,19 @@
         <v>535136</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>507721</v>
+        <v>509175</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>558847</v>
+        <v>562411</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6885482168079275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6532732508500577</v>
+        <v>0.6551446406617771</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7190557788430678</v>
+        <v>0.7236418255352697</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>239038</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211390</v>
+        <v>212832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>270948</v>
+        <v>268815</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2462470801390782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2177652457324248</v>
+        <v>0.2192504033158442</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2791191133856047</v>
+        <v>0.2769224591742244</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>229</v>
@@ -3177,19 +3177,19 @@
         <v>248478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>221690</v>
+        <v>220673</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>272702</v>
+        <v>275752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3555138164629968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3171855924348947</v>
+        <v>0.3157310883793513</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3901726580577733</v>
+        <v>0.3945367834399086</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>453</v>
@@ -3198,19 +3198,19 @@
         <v>487516</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>449462</v>
+        <v>451442</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>524644</v>
+        <v>530329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2919868652029347</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2691948797035326</v>
+        <v>0.2703813160291063</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3142234672030356</v>
+        <v>0.3176285892553307</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>731686</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>699776</v>
+        <v>701909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>759334</v>
+        <v>757892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7537529198609219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7208808866143953</v>
+        <v>0.7230775408257755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7822347542675752</v>
+        <v>0.7807495966841557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>418</v>
@@ -3248,19 +3248,19 @@
         <v>450449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>426225</v>
+        <v>423175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>477237</v>
+        <v>478254</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6444861835370032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6098273419422267</v>
+        <v>0.6054632165600915</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6828144075651056</v>
+        <v>0.6842689116206491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1104</v>
@@ -3269,19 +3269,19 @@
         <v>1182135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1145007</v>
+        <v>1139322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1220189</v>
+        <v>1218209</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7080131347970653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6857765327969644</v>
+        <v>0.6823714107446693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7308051202964675</v>
+        <v>0.7296186839708937</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>78590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64652</v>
+        <v>64438</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95989</v>
+        <v>94033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1948619162744369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1603028310014982</v>
+        <v>0.1597710916736967</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2380015239613918</v>
+        <v>0.2331510554476887</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>162</v>
@@ -3394,19 +3394,19 @@
         <v>175120</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>151982</v>
+        <v>151796</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>198473</v>
+        <v>198408</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2610768041829636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2265810682629701</v>
+        <v>0.2263042608041677</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2958925622393889</v>
+        <v>0.2957942965374088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>239</v>
@@ -3415,19 +3415,19 @@
         <v>253711</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227846</v>
+        <v>227480</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>284106</v>
+        <v>285252</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2362132788031124</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2121328059739499</v>
+        <v>0.2117919631343678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2645121896375166</v>
+        <v>0.2655790459173353</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>324722</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>307323</v>
+        <v>309279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>338660</v>
+        <v>338874</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8051380837255632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7619984760386082</v>
+        <v>0.7668489445523115</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8396971689985019</v>
+        <v>0.8402289083263034</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>460</v>
@@ -3465,19 +3465,19 @@
         <v>495642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472289</v>
+        <v>472354</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>518780</v>
+        <v>518966</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7389231958170364</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7041074377606114</v>
+        <v>0.7042057034625911</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7734189317370299</v>
+        <v>0.7736957391958322</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>770</v>
@@ -3486,19 +3486,19 @@
         <v>820363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>789968</v>
+        <v>788822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>846228</v>
+        <v>846594</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7637867211968876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7354878103624833</v>
+        <v>0.7344209540826646</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7878671940260501</v>
+        <v>0.7882080368656321</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>59727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48731</v>
+        <v>47652</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74351</v>
+        <v>73828</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2700110351981037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2203018613422304</v>
+        <v>0.2154233602453036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3361232698938477</v>
+        <v>0.3337589979951548</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>220</v>
@@ -3611,19 +3611,19 @@
         <v>234413</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>210314</v>
+        <v>208883</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>265145</v>
+        <v>262755</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2533144996528447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2272720137730342</v>
+        <v>0.2257254420437912</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.286523863469404</v>
+        <v>0.2839410382811222</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>280</v>
@@ -3632,19 +3632,19 @@
         <v>294141</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>264470</v>
+        <v>265727</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>326865</v>
+        <v>321576</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2565356392341649</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2306578385403616</v>
+        <v>0.231754719008388</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2850758852054148</v>
+        <v>0.280463752641254</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>161476</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>146852</v>
+        <v>147375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>172472</v>
+        <v>173551</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7299889648018963</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6638767301061523</v>
+        <v>0.6662410020048452</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7796981386577696</v>
+        <v>0.7845766397546964</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>650</v>
@@ -3682,19 +3682,19 @@
         <v>690972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>660240</v>
+        <v>662630</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>715071</v>
+        <v>716502</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7466855003471553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7134761365305959</v>
+        <v>0.7160589617188777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7727279862269657</v>
+        <v>0.7742745579562086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>810</v>
@@ -3703,19 +3703,19 @@
         <v>852447</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>819723</v>
+        <v>825012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>882118</v>
+        <v>880861</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7434643607658351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7149241147945852</v>
+        <v>0.719536247358746</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7693421614596384</v>
+        <v>0.7682452809916119</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>862907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>813862</v>
+        <v>810997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>915536</v>
+        <v>909181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2966594035641595</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.279798102254665</v>
+        <v>0.2788131608436946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3147527280151632</v>
+        <v>0.3125678172920416</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>911</v>
@@ -3828,19 +3828,19 @@
         <v>981033</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>926230</v>
+        <v>926351</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1034709</v>
+        <v>1033227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.312010006888733</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2945801205357481</v>
+        <v>0.2946187588916352</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3290809664223499</v>
+        <v>0.3286097607446328</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1724</v>
@@ -3849,19 +3849,19 @@
         <v>1843941</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1774703</v>
+        <v>1767592</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1915069</v>
+        <v>1911732</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3046333106850741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2931946238906063</v>
+        <v>0.292019954637429</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3163841903165612</v>
+        <v>0.3158329904656893</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2045841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1993212</v>
+        <v>1999567</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2094886</v>
+        <v>2097751</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7033405964358405</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6852472719848368</v>
+        <v>0.6874321827079581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7202018977453349</v>
+        <v>0.7211868391563054</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2002</v>
@@ -3899,19 +3899,19 @@
         <v>2163204</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2109528</v>
+        <v>2111010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2218007</v>
+        <v>2217886</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6879899931112671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.67091903357765</v>
+        <v>0.6713902392553672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.705419879464252</v>
+        <v>0.7053812411083646</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3919</v>
@@ -3920,19 +3920,19 @@
         <v>4209044</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4137916</v>
+        <v>4141253</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4278282</v>
+        <v>4285393</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6953666893149258</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6836158096834388</v>
+        <v>0.6841670095343106</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7068053761093936</v>
+        <v>0.7079800453625709</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>193835</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>172997</v>
+        <v>175113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213549</v>
+        <v>216033</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.500071301971993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.44631141064605</v>
+        <v>0.4517718319589108</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5509315432951349</v>
+        <v>0.5573414182505219</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -4287,19 +4287,19 @@
         <v>140319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120565</v>
+        <v>121252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157009</v>
+        <v>158545</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4443047862310443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3817578790903493</v>
+        <v>0.3839337718251562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.497153491242637</v>
+        <v>0.5020184629080188</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>315</v>
@@ -4308,19 +4308,19 @@
         <v>334153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>308675</v>
+        <v>307434</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>363700</v>
+        <v>363173</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4750340411754219</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4388146376086522</v>
+        <v>0.4370497475073635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5170374842288162</v>
+        <v>0.5162889722806855</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>193779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>174065</v>
+        <v>171581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214617</v>
+        <v>212501</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4999286980280069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.449068456704865</v>
+        <v>0.4426585817494781</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.55368858935395</v>
+        <v>0.5482281680410892</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -4358,19 +4358,19 @@
         <v>175497</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>158807</v>
+        <v>157271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>195251</v>
+        <v>194564</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5556952137689557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.502846508757363</v>
+        <v>0.4979815370919811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6182421209096507</v>
+        <v>0.6160662281748437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>349</v>
@@ -4379,19 +4379,19 @@
         <v>369277</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>339730</v>
+        <v>340257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>394755</v>
+        <v>395996</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5249659588245781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4829625157711838</v>
+        <v>0.4837110277193146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5611853623913479</v>
+        <v>0.5629502524926367</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>127660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109817</v>
+        <v>109218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145593</v>
+        <v>143740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4031490446274617</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3468012859003798</v>
+        <v>0.3449097985723764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4597794299794485</v>
+        <v>0.4539281076461016</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -4504,19 +4504,19 @@
         <v>157560</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137876</v>
+        <v>138801</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175574</v>
+        <v>176875</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4723362020795615</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.413326988758589</v>
+        <v>0.4161017812148607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5263393286860222</v>
+        <v>0.5302412040940264</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>272</v>
@@ -4525,19 +4525,19 @@
         <v>285219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>260030</v>
+        <v>260081</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312746</v>
+        <v>315312</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.438642619486131</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3999034434959169</v>
+        <v>0.3999816859666361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4809765175445244</v>
+        <v>0.4849227145200909</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>188998</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>171065</v>
+        <v>172918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>206841</v>
+        <v>207440</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5968509553725383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5402205700205515</v>
+        <v>0.5460718923538982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6531987140996202</v>
+        <v>0.6550902014276233</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>165</v>
@@ -4575,19 +4575,19 @@
         <v>176015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>158001</v>
+        <v>156700</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195699</v>
+        <v>194774</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5276637979204386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4736606713139778</v>
+        <v>0.4697587959059736</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.586673011241411</v>
+        <v>0.5838982187851393</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>341</v>
@@ -4596,19 +4596,19 @@
         <v>365013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>337486</v>
+        <v>334920</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>390202</v>
+        <v>390151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.561357380513869</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5190234824554756</v>
+        <v>0.5150772854799089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.600096556504083</v>
+        <v>0.6000183140333638</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>127743</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110721</v>
+        <v>107123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>147225</v>
+        <v>146982</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3152515230476262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2732427867945761</v>
+        <v>0.2643633248612572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3633291917788068</v>
+        <v>0.3627304680711413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -4721,19 +4721,19 @@
         <v>52538</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41847</v>
+        <v>42026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64126</v>
+        <v>65824</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3768326611299339</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3001478061491262</v>
+        <v>0.3014288346982217</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4599477790697113</v>
+        <v>0.4721253557505903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -4742,19 +4742,19 @@
         <v>180282</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158751</v>
+        <v>160186</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>202267</v>
+        <v>203658</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3310157844386625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2914822749293484</v>
+        <v>0.2941172968498131</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3713823974197823</v>
+        <v>0.3739368734270423</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>277468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257986</v>
+        <v>258229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294490</v>
+        <v>298088</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6847484769523738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.636670808221193</v>
+        <v>0.6372695319288587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7267572132054239</v>
+        <v>0.7356366751387428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -4792,19 +4792,19 @@
         <v>86883</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75295</v>
+        <v>73597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97574</v>
+        <v>97395</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6231673388700661</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5400522209302887</v>
+        <v>0.5278746442494099</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6998521938508739</v>
+        <v>0.6985711653017784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>344</v>
@@ -4813,19 +4813,19 @@
         <v>364351</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>342366</v>
+        <v>340975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>385882</v>
+        <v>384447</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6689842155613375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6286176025802175</v>
+        <v>0.6260631265729577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7085177250706512</v>
+        <v>0.7058827031501869</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>263839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>234586</v>
+        <v>236940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>293299</v>
+        <v>291351</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2999859093891785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2667255148584414</v>
+        <v>0.2694018456353625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3334813576455487</v>
+        <v>0.3312670148868963</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>256</v>
@@ -4938,19 +4938,19 @@
         <v>264692</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>240121</v>
+        <v>239271</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>289992</v>
+        <v>291520</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3869592719116827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.351038241382105</v>
+        <v>0.3497959836179538</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4239451896699449</v>
+        <v>0.4261802067196721</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>510</v>
@@ -4959,19 +4959,19 @@
         <v>528531</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>490339</v>
+        <v>492753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>568795</v>
+        <v>567626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.338035877212469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3136092379333609</v>
+        <v>0.3151526644448766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3637877621415443</v>
+        <v>0.3630401087342202</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>615666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>586206</v>
+        <v>588154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>644919</v>
+        <v>642565</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7000140906108215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6665186423544516</v>
+        <v>0.6687329851131038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7332744851415586</v>
+        <v>0.7305981543646376</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>408</v>
@@ -5009,19 +5009,19 @@
         <v>419339</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>394039</v>
+        <v>392511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>443910</v>
+        <v>444760</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6130407280883173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5760548103300552</v>
+        <v>0.5738197932803278</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.648961758617895</v>
+        <v>0.6502040163820462</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>994</v>
@@ -5030,19 +5030,19 @@
         <v>1035005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>994741</v>
+        <v>995910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1073197</v>
+        <v>1070783</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6619641227875309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6362122378584558</v>
+        <v>0.6369598912657799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6863907620666393</v>
+        <v>0.6848473355551236</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>135680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117039</v>
+        <v>116442</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154547</v>
+        <v>156354</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3191201576873869</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2752775676903291</v>
+        <v>0.2738715374758038</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3634946517311076</v>
+        <v>0.3677446870141659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -5155,19 +5155,19 @@
         <v>184505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>164278</v>
+        <v>163895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210958</v>
+        <v>207721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3309616344210277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2946796311791741</v>
+        <v>0.2939921684695981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3784123856196177</v>
+        <v>0.3726065920999993</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>307</v>
@@ -5176,19 +5176,19 @@
         <v>320185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>292289</v>
+        <v>287540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>350135</v>
+        <v>348273</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3258381097695133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2974500586429059</v>
+        <v>0.2926168297948565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3563171619173977</v>
+        <v>0.3544221636437742</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>289489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270622</v>
+        <v>268815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>308130</v>
+        <v>308727</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.680879842312613</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6365053482688922</v>
+        <v>0.632255312985834</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7247224323096708</v>
+        <v>0.7261284625241963</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>356</v>
@@ -5226,19 +5226,19 @@
         <v>372976</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>346523</v>
+        <v>349760</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>393203</v>
+        <v>393586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6690383655789722</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6215876143803823</v>
+        <v>0.6273934079000008</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7053203688208259</v>
+        <v>0.7060078315304023</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>636</v>
@@ -5247,19 +5247,19 @@
         <v>662465</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>632515</v>
+        <v>634377</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>690361</v>
+        <v>695110</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6741618902304868</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6436828380826022</v>
+        <v>0.6455778363562258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.702549941357094</v>
+        <v>0.7073831702051435</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>75430</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61591</v>
+        <v>61205</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90517</v>
+        <v>92454</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.312277737574902</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2549847509890213</v>
+        <v>0.2533880552714371</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3747359948243507</v>
+        <v>0.3827553037370683</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>249</v>
@@ -5372,19 +5372,19 @@
         <v>263274</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>237238</v>
+        <v>238146</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>293172</v>
+        <v>292694</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3190084428173255</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2874599196916304</v>
+        <v>0.2885607431036811</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3552352724577004</v>
+        <v>0.3546566262002848</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>322</v>
@@ -5393,19 +5393,19 @@
         <v>338704</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>307632</v>
+        <v>308721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>373082</v>
+        <v>372303</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3174845089970071</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2883591274135205</v>
+        <v>0.2893800970791296</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3497083829390528</v>
+        <v>0.348978405336148</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>166118</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151031</v>
+        <v>149094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179957</v>
+        <v>180343</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.687722262425098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6252640051756493</v>
+        <v>0.6172446962629317</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7450152490109786</v>
+        <v>0.7466119447285625</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>519</v>
@@ -5443,19 +5443,19 @@
         <v>562015</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>532117</v>
+        <v>532595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>588051</v>
+        <v>587143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6809915571826745</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6447647275422996</v>
+        <v>0.6453433737997152</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7125400803083696</v>
+        <v>0.7114392568963189</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>676</v>
@@ -5464,19 +5464,19 @@
         <v>728133</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>693755</v>
+        <v>694534</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>759205</v>
+        <v>758116</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6825154910029929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6502916170609472</v>
+        <v>0.6510215946638519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7116408725864795</v>
+        <v>0.7106199029208704</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>924188</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>873193</v>
+        <v>876031</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>973123</v>
+        <v>975066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3480008270837365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3287990639330673</v>
+        <v>0.3298677543687418</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3664272454095189</v>
+        <v>0.3671590703184928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1019</v>
@@ -5589,19 +5589,19 @@
         <v>1062888</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1011185</v>
+        <v>1012532</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1116119</v>
+        <v>1122302</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3722099534966805</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3541044591843566</v>
+        <v>0.3545759138299995</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3908507855660471</v>
+        <v>0.3930161894833887</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1899</v>
@@ -5610,19 +5610,19 @@
         <v>1987075</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1916611</v>
+        <v>1916825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2058615</v>
+        <v>2057824</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3605444497778772</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3477591394650231</v>
+        <v>0.3477979299305893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.373524982973696</v>
+        <v>0.3733815142761541</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1731517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1682582</v>
+        <v>1680639</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1782512</v>
+        <v>1779674</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6519991729162635</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6335727545904811</v>
+        <v>0.6328409296815072</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6712009360669327</v>
+        <v>0.6701322456312582</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1697</v>
@@ -5660,19 +5660,19 @@
         <v>1792725</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1739494</v>
+        <v>1733311</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1844428</v>
+        <v>1843081</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6277900465033195</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6091492144339529</v>
+        <v>0.6069838105166112</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6458955408156434</v>
+        <v>0.6454240861700002</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3340</v>
@@ -5681,19 +5681,19 @@
         <v>3524243</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3452703</v>
+        <v>3453494</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3594707</v>
+        <v>3594493</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6394555502221229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.626475017026304</v>
+        <v>0.6266184857238458</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.652240860534977</v>
+        <v>0.6522020700694106</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>306605</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>281891</v>
+        <v>282875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>328120</v>
+        <v>331181</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5654683755878074</v>
+        <v>0.5654683755878073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5198880107145745</v>
+        <v>0.5217028539003438</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6051467747020994</v>
+        <v>0.6107921753620669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>378</v>
@@ -6048,19 +6048,19 @@
         <v>268006</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>247726</v>
+        <v>248620</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>286720</v>
+        <v>287832</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.556806218991536</v>
+        <v>0.5568062189915362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5146733777061728</v>
+        <v>0.51652946021833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5956857272911236</v>
+        <v>0.5979961679165398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>685</v>
@@ -6069,19 +6069,19 @@
         <v>574611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>542189</v>
+        <v>543120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>603208</v>
+        <v>606694</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5613949436163127</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5297187290963637</v>
+        <v>0.5306287834638275</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.589334804314773</v>
+        <v>0.5927402370003739</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>235610</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214095</v>
+        <v>211034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>260324</v>
+        <v>259340</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4345316244121927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3948532252979006</v>
+        <v>0.3892078246379332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4801119892854255</v>
+        <v>0.4782971460996562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -6119,19 +6119,19 @@
         <v>213321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>194607</v>
+        <v>193495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>233601</v>
+        <v>232707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4431937810084638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4043142727088763</v>
+        <v>0.4020038320834605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4853266222938271</v>
+        <v>0.4834705397816699</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>536</v>
@@ -6140,19 +6140,19 @@
         <v>448930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>420333</v>
+        <v>416847</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>481352</v>
+        <v>480421</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4386050563836873</v>
+        <v>0.4386050563836874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.410665195685227</v>
+        <v>0.4072597629996262</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4702812709036362</v>
+        <v>0.4693712165361726</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>267298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>243340</v>
+        <v>245062</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288086</v>
+        <v>289274</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5576468540532182</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5076639998669739</v>
+        <v>0.5112567214937019</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6010160578549109</v>
+        <v>0.6034939025923544</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>335</v>
@@ -6265,19 +6265,19 @@
         <v>244959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>226639</v>
+        <v>227372</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261397</v>
+        <v>261816</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5861393152285381</v>
+        <v>0.5861393152285382</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5423012758071797</v>
+        <v>0.5440563957615568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6254702968237508</v>
+        <v>0.6264732079810552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>594</v>
@@ -6286,19 +6286,19 @@
         <v>512258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>483944</v>
+        <v>484048</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>542700</v>
+        <v>542309</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5709180061276152</v>
+        <v>0.5709180061276151</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.539361766610386</v>
+        <v>0.5394772036527173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6048457866621463</v>
+        <v>0.6044104354526068</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>212034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191246</v>
+        <v>190058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>235992</v>
+        <v>234270</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.442353145946782</v>
+        <v>0.4423531459467819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3989839421450896</v>
+        <v>0.3965060974076458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4923360001330263</v>
+        <v>0.4887432785062981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>247</v>
@@ -6336,19 +6336,19 @@
         <v>172961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>156523</v>
+        <v>156104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>191281</v>
+        <v>190548</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4138606847714616</v>
+        <v>0.4138606847714617</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3745297031762493</v>
+        <v>0.3735267920189447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4576987241928201</v>
+        <v>0.4559436042384432</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>465</v>
@@ -6357,19 +6357,19 @@
         <v>384995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>354553</v>
+        <v>354944</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>413309</v>
+        <v>413205</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4290819938723848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3951542133378537</v>
+        <v>0.3955895645473935</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.460638233389614</v>
+        <v>0.4605227963472827</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>226186</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202887</v>
+        <v>202741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>247046</v>
+        <v>246825</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.487610998451424</v>
+        <v>0.4876109984514241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4373844240892584</v>
+        <v>0.4370689361246089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5325820874516216</v>
+        <v>0.5321060589027281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -6482,19 +6482,19 @@
         <v>104185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91129</v>
+        <v>93312</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>114089</v>
+        <v>115716</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5636735612607711</v>
+        <v>0.5636735612607712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4930354273493837</v>
+        <v>0.5048460954458488</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6172556449637374</v>
+        <v>0.626057511251354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>387</v>
@@ -6503,19 +6503,19 @@
         <v>330371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>304738</v>
+        <v>305787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>355522</v>
+        <v>353931</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5092834382361944</v>
+        <v>0.5092834382361945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4697681602974494</v>
+        <v>0.4713856172933227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5480548992706703</v>
+        <v>0.5456020443309563</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>237679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216819</v>
+        <v>217040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>260978</v>
+        <v>261124</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.512389001548576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4674179125483784</v>
+        <v>0.4678939410972719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5626155759107417</v>
+        <v>0.5629310638753914</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>124</v>
@@ -6553,19 +6553,19 @@
         <v>80648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>70744</v>
+        <v>69117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93704</v>
+        <v>91521</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4363264387392288</v>
+        <v>0.4363264387392289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3827443550362624</v>
+        <v>0.373942488748646</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5069645726506163</v>
+        <v>0.4951539045541511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>376</v>
@@ -6574,19 +6574,19 @@
         <v>318327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293176</v>
+        <v>294767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>343960</v>
+        <v>342911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4907165617638056</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4519451007293295</v>
+        <v>0.4543979556690437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5302318397025506</v>
+        <v>0.5286143827066772</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>448079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>411477</v>
+        <v>414051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>485292</v>
+        <v>484549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4092881080660202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3758542053162833</v>
+        <v>0.3782060375233315</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4432796444085357</v>
+        <v>0.4426002416845641</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>599</v>
@@ -6699,19 +6699,19 @@
         <v>407212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>383494</v>
+        <v>383798</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>433120</v>
+        <v>431151</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4866356606478763</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4582917647224605</v>
+        <v>0.4586551541450767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5175967016950945</v>
+        <v>0.5152440951641244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1023</v>
@@ -6720,19 +6720,19 @@
         <v>855291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>812182</v>
+        <v>811322</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>901240</v>
+        <v>899450</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4427964891217294</v>
+        <v>0.4427964891217293</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4204783562228727</v>
+        <v>0.4200331485726569</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4665851354177078</v>
+        <v>0.4656583954062932</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>646698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>609485</v>
+        <v>610228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>683300</v>
+        <v>680726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5907118919339798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.556720355591464</v>
+        <v>0.5573997583154358</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.624145794683716</v>
+        <v>0.6217939624766683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>600</v>
@@ -6770,19 +6770,19 @@
         <v>429578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>403670</v>
+        <v>405639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>453296</v>
+        <v>452992</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5133643393521237</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4824032983049055</v>
+        <v>0.4847559048358757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5417082352775394</v>
+        <v>0.5413448458549235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1259</v>
@@ -6791,19 +6791,19 @@
         <v>1076276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1030327</v>
+        <v>1032117</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1119385</v>
+        <v>1120245</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5572035108782709</v>
+        <v>0.5572035108782707</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5334148645822924</v>
+        <v>0.5343416045937068</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5795216437771272</v>
+        <v>0.5799668514273433</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>189880</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>167386</v>
+        <v>168565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>216332</v>
+        <v>215022</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3724256644145789</v>
+        <v>0.372425664414579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.328306643255149</v>
+        <v>0.3306172734710964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4243067094608179</v>
+        <v>0.4217383066060736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>506</v>
@@ -6916,19 +6916,19 @@
         <v>340155</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>315530</v>
+        <v>320027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>363458</v>
+        <v>364792</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4286745472841357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3976404055719865</v>
+        <v>0.4033080212197165</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4580415358866315</v>
+        <v>0.4597224260023761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>671</v>
@@ -6937,19 +6937,19 @@
         <v>530036</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>495210</v>
+        <v>493049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>563747</v>
+        <v>564270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.406670997671305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3799507748731927</v>
+        <v>0.3782927571950044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.432535825469777</v>
+        <v>0.4329368288481887</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>319968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>293516</v>
+        <v>294826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>342462</v>
+        <v>341283</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6275743355854209</v>
+        <v>0.627574335585421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5756932905391826</v>
+        <v>0.5782616933939266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6716933567448519</v>
+        <v>0.6693827265289035</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>731</v>
@@ -6987,19 +6987,19 @@
         <v>453350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>430047</v>
+        <v>428713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>477975</v>
+        <v>473478</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5713254527158642</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5419584641133685</v>
+        <v>0.5402775739976238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.602359594428014</v>
+        <v>0.5966919787802832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1060</v>
@@ -7008,19 +7008,19 @@
         <v>773317</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>739606</v>
+        <v>739083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>808143</v>
+        <v>810304</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.593329002328695</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.567464174530223</v>
+        <v>0.5670631711518114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6200492251268073</v>
+        <v>0.6217072428049959</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>127966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>106039</v>
+        <v>104381</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151726</v>
+        <v>150840</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5667553299700101</v>
+        <v>0.56675532997001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4696416889393599</v>
+        <v>0.4622969170379688</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6719872101317423</v>
+        <v>0.6680625801168101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>482</v>
@@ -7133,19 +7133,19 @@
         <v>357748</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>331136</v>
+        <v>329486</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>387582</v>
+        <v>383976</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4369489046874435</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4044453657390063</v>
+        <v>0.4024292374337393</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4733867019411312</v>
+        <v>0.4689832634362112</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>539</v>
@@ -7154,19 +7154,19 @@
         <v>485714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>447562</v>
+        <v>450970</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>524628</v>
+        <v>525093</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4650080502473333</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4284823219568104</v>
+        <v>0.4317449792026589</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.502262776972381</v>
+        <v>0.502707480005035</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>97821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74061</v>
+        <v>74947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119748</v>
+        <v>121406</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.43324467002999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3280127898682576</v>
+        <v>0.3319374198831901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5303583110606401</v>
+        <v>0.5377030829620312</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>645</v>
@@ -7204,19 +7204,19 @@
         <v>460994</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>431160</v>
+        <v>434766</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>487606</v>
+        <v>489256</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5630510953125564</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5266132980588687</v>
+        <v>0.531016736563789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5955546342609936</v>
+        <v>0.5975707625662608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>693</v>
@@ -7225,19 +7225,19 @@
         <v>558815</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>519901</v>
+        <v>519436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>596967</v>
+        <v>593559</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5349919497526667</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4977372230276191</v>
+        <v>0.497292519994965</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5715176780431894</v>
+        <v>0.5682550207973411</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1566015</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1508720</v>
+        <v>1501708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1633217</v>
+        <v>1628299</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4722852581919483</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4550060409412294</v>
+        <v>0.4528912244888464</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4925523334390617</v>
+        <v>0.4910690966948716</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2461</v>
@@ -7350,19 +7350,19 @@
         <v>1722267</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1672786</v>
+        <v>1670841</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1772144</v>
+        <v>1772552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4874637182345413</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4734589357519839</v>
+        <v>0.4729082589486283</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5015808107544749</v>
+        <v>0.5016963095587952</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3899</v>
@@ -7371,19 +7371,19 @@
         <v>3288282</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3197727</v>
+        <v>3204478</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3368820</v>
+        <v>3371749</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.480115267995759</v>
+        <v>0.4801152679957591</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4668935042904117</v>
+        <v>0.4678793335470466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.491874552160775</v>
+        <v>0.4923021694516666</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1749809</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1682607</v>
+        <v>1687525</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1807104</v>
+        <v>1814116</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5277147418080517</v>
+        <v>0.5277147418080518</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5074476665609384</v>
+        <v>0.5089309033051285</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5449939590587707</v>
+        <v>0.5471087755111536</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2644</v>
@@ -7421,19 +7421,19 @@
         <v>1810851</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1760974</v>
+        <v>1760566</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1860332</v>
+        <v>1862277</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5125362817654587</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4984191892455251</v>
+        <v>0.4983036904412049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5265410642480161</v>
+        <v>0.5270917410513717</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4389</v>
@@ -7442,19 +7442,19 @@
         <v>3560660</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3480122</v>
+        <v>3477193</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3651215</v>
+        <v>3644464</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.519884732004241</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5081254478392251</v>
+        <v>0.5076978305483334</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5331064957095883</v>
+        <v>0.5321206664529533</v>
       </c>
     </row>
     <row r="24">
